--- a/public/files/orgUsersImportFormat.xlsx
+++ b/public/files/orgUsersImportFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujinkim/teespace-admin/public/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujin\Documents\teespace-platform\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E37B6B2-2DE0-CF48-AFDB-E355047C43D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43F511-5CD1-4CC4-AC0B-351EDFD7706F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="2920" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33330" yWindow="2130" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="직원" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -563,6 +563,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -786,23 +789,23 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="4" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="15.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="4" customWidth="1"/>
-    <col min="15" max="17" width="17.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14.5546875" style="4" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="17" width="17.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="17.25" customHeight="1">
@@ -812,7 +815,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -821,19 +824,19 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="25" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -890,17 +893,17 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="13" width="11.28515625"/>
-    <col min="14" max="14" width="20.42578125" style="4" customWidth="1"/>
-    <col min="15" max="19" width="11.28515625"/>
-    <col min="20" max="20" width="14.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
+    <col min="6" max="13" width="11.33203125"/>
+    <col min="14" max="14" width="20.44140625" style="4" customWidth="1"/>
+    <col min="15" max="19" width="11.33203125"/>
+    <col min="20" max="20" width="14.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="17.25" customHeight="1">

--- a/public/files/orgUsersImportFormat.xlsx
+++ b/public/files/orgUsersImportFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujin\Documents\teespace-platform\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43F511-5CD1-4CC4-AC0B-351EDFD7706F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E038E-D0E7-4096-A233-D4B31CDEFF4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="2130" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29040" yWindow="3960" windowWidth="28575" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="직원" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>이름</t>
   </si>
@@ -282,6 +282,86 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직 코드</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>직책</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용형태</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>borikim@tmax.co.kr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwer1234!</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보리</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅팀</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>실장</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0060</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>03111112222</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011112222</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -563,9 +643,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -786,102 +871,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="4" customWidth="1"/>
     <col min="2" max="3" width="13.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" style="4" customWidth="1"/>
-    <col min="7" max="9" width="11.6640625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="15.33203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
-    <col min="15" max="17" width="17.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="4" customWidth="1"/>
+    <col min="14" max="16" width="17.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>33</v>
+      <c r="H1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+    <row r="2" spans="1:17">
+      <c r="A2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="4">
+        <v>19001231</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F3500DFE-2F28-4CDA-99F4-11D782B6599E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/public/files/orgUsersImportFormat.xlsx
+++ b/public/files/orgUsersImportFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sujin\Documents\teespace-platform\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11173E27-5E0B-4B37-AA09-EC295EE2F30B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F035633F-ECF6-41AC-8DE0-A713C96E90DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="1770" windowWidth="28575" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34860" yWindow="1035" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="직원" sheetId="1" r:id="rId1"/>
@@ -69,39 +69,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>borikim@tmax.co.kr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qwer1234!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김보리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마케팅팀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매니저</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03111112222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01011112222</t>
+    <t>gildong_hong@company.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차장</t>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012345678</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +408,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -465,22 +464,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
